--- a/Tables/Summary_table.xlsx
+++ b/Tables/Summary_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clepore\Downloads\SSI_principles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clepore\Downloads\SSI_principles\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9279BFD3-4FAA-4F97-9C09-0D818EA6222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9AF0D-B4D7-4464-B31C-3260B06D6BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="3" xr2:uid="{2F691BE0-650C-425B-994B-C0A8894E19E9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{2F691BE0-650C-425B-994B-C0A8894E19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="SSI Principles" sheetId="1" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E35C44-6E0D-40C6-B4C0-7C252F6CDFEC}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -3619,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBFBA6-4E43-42FC-BA9D-A1ED5385B14C}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
